--- a/Data/Cuentas_Cantonales.xlsx
+++ b/Data/Cuentas_Cantonales.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Earthquake EC\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8232" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8232" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Por Cantón" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$D$23</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="517">
   <si>
     <t>AÑO</t>
   </si>
@@ -38,1470 +38,1476 @@
     <t>ECONOMÍA TOTAL</t>
   </si>
   <si>
+    <t>2016 sd</t>
+  </si>
+  <si>
+    <t>AZUAY</t>
+  </si>
+  <si>
+    <t>Camilo Ponce Enríquez</t>
+  </si>
+  <si>
+    <t>39.528,94</t>
+  </si>
+  <si>
+    <t>Chordeleg</t>
+  </si>
+  <si>
+    <t>20.939,64</t>
+  </si>
+  <si>
+    <t>Cuenca</t>
+  </si>
+  <si>
+    <t>4.190.825,65</t>
+  </si>
+  <si>
+    <t>El Pan</t>
+  </si>
+  <si>
+    <t>7.431,75</t>
+  </si>
+  <si>
+    <t>Girón</t>
+  </si>
+  <si>
+    <t>23.838,07</t>
+  </si>
+  <si>
+    <t>Guachapala</t>
+  </si>
+  <si>
+    <t>8.003,86</t>
+  </si>
+  <si>
+    <t>Gualaceo</t>
+  </si>
+  <si>
+    <t>83.907,84</t>
+  </si>
+  <si>
+    <t>Nabón</t>
+  </si>
+  <si>
+    <t>22.905,57</t>
+  </si>
+  <si>
+    <t>Oña</t>
+  </si>
+  <si>
+    <t>6.279,18</t>
+  </si>
+  <si>
+    <t>Paute</t>
+  </si>
+  <si>
+    <t>70.452,92</t>
+  </si>
+  <si>
+    <t>Pucará</t>
+  </si>
+  <si>
+    <t>11.620,49</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>8.340,66</t>
+  </si>
+  <si>
+    <t>Santa Isabel</t>
+  </si>
+  <si>
+    <t>40.823,80</t>
+  </si>
+  <si>
+    <t>Sevilla De Oro</t>
+  </si>
+  <si>
+    <t>204.616,92</t>
+  </si>
+  <si>
+    <t>Sigsig</t>
+  </si>
+  <si>
+    <t>43.295,55</t>
+  </si>
+  <si>
+    <t>BOLÍVAR</t>
+  </si>
+  <si>
+    <t>Caluma</t>
+  </si>
+  <si>
+    <t>56.253,31</t>
+  </si>
+  <si>
+    <t>Chillanes</t>
+  </si>
+  <si>
+    <t>28.621,19</t>
+  </si>
+  <si>
+    <t>Chimbo</t>
+  </si>
+  <si>
+    <t>31.875,41</t>
+  </si>
+  <si>
+    <t>Echeandía</t>
+  </si>
+  <si>
+    <t>31.077,31</t>
+  </si>
+  <si>
+    <t>Guaranda</t>
+  </si>
+  <si>
+    <t>364.249,98</t>
+  </si>
+  <si>
+    <t>Las Naves</t>
+  </si>
+  <si>
+    <t>19.058,55</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>48.891,80</t>
+  </si>
+  <si>
+    <t>CAÑAR</t>
+  </si>
+  <si>
+    <t>Azogues</t>
+  </si>
+  <si>
+    <t>376.811,23</t>
+  </si>
+  <si>
+    <t>Biblián</t>
+  </si>
+  <si>
+    <t>65.231,74</t>
+  </si>
+  <si>
+    <t>Cañar</t>
+  </si>
+  <si>
+    <t>179.582,10</t>
+  </si>
+  <si>
+    <t>Déleg</t>
+  </si>
+  <si>
+    <t>15.524,18</t>
+  </si>
+  <si>
+    <t>El Tambo</t>
+  </si>
+  <si>
+    <t>51.660,68</t>
+  </si>
+  <si>
+    <t>La Troncal</t>
+  </si>
+  <si>
+    <t>321.220,05</t>
+  </si>
+  <si>
+    <t>Suscal</t>
+  </si>
+  <si>
+    <t>14.547,05</t>
+  </si>
+  <si>
+    <t>CARCHI</t>
+  </si>
+  <si>
+    <t>Bolívar (Carchi)</t>
+  </si>
+  <si>
+    <t>46.080,54</t>
+  </si>
+  <si>
+    <t>Espejo</t>
+  </si>
+  <si>
+    <t>60.423,65</t>
+  </si>
+  <si>
+    <t>Mira</t>
+  </si>
+  <si>
+    <t>31.565,03</t>
+  </si>
+  <si>
+    <t>Montúfar</t>
+  </si>
+  <si>
+    <t>99.525,62</t>
+  </si>
+  <si>
+    <t>San Pedro de Huaca</t>
+  </si>
+  <si>
+    <t>23.479,75</t>
+  </si>
+  <si>
+    <t>Tulcán</t>
+  </si>
+  <si>
+    <t>402.494,85</t>
+  </si>
+  <si>
+    <t>CHIMBORAZO</t>
+  </si>
+  <si>
+    <t>Alausí</t>
+  </si>
+  <si>
+    <t>67.379,56</t>
+  </si>
+  <si>
+    <t>Chambo</t>
+  </si>
+  <si>
+    <t>30.557,60</t>
+  </si>
+  <si>
+    <t>Chunchi</t>
+  </si>
+  <si>
+    <t>31.266,21</t>
+  </si>
+  <si>
+    <t>Colta</t>
+  </si>
+  <si>
+    <t>54.807,61</t>
+  </si>
+  <si>
+    <t>Cumandá</t>
+  </si>
+  <si>
+    <t>42.355,42</t>
+  </si>
+  <si>
+    <t>Guamote</t>
+  </si>
+  <si>
+    <t>77.621,37</t>
+  </si>
+  <si>
+    <t>Guano</t>
+  </si>
+  <si>
+    <t>89.349,62</t>
+  </si>
+  <si>
+    <t>Pallatanga</t>
+  </si>
+  <si>
+    <t>21.534,30</t>
+  </si>
+  <si>
+    <t>Penipe</t>
+  </si>
+  <si>
+    <t>16.053,36</t>
+  </si>
+  <si>
+    <t>Riobamba</t>
+  </si>
+  <si>
+    <t>1.543.655,63</t>
+  </si>
+  <si>
+    <t>COTOPAXI</t>
+  </si>
+  <si>
+    <t>La Maná</t>
+  </si>
+  <si>
+    <t>144.629,32</t>
+  </si>
+  <si>
+    <t>Latacunga</t>
+  </si>
+  <si>
+    <t>1.097.960,27</t>
+  </si>
+  <si>
+    <t>Pangua</t>
+  </si>
+  <si>
+    <t>48.299,31</t>
+  </si>
+  <si>
+    <t>Pujilí</t>
+  </si>
+  <si>
+    <t>121.249,75</t>
+  </si>
+  <si>
+    <t>Salcedo</t>
+  </si>
+  <si>
+    <t>218.012,12</t>
+  </si>
+  <si>
+    <t>Saquisilí</t>
+  </si>
+  <si>
+    <t>44.904,95</t>
+  </si>
+  <si>
+    <t>Sigchos</t>
+  </si>
+  <si>
+    <t>24.568,48</t>
+  </si>
+  <si>
+    <t>EL ORO</t>
+  </si>
+  <si>
+    <t>Arenillas</t>
+  </si>
+  <si>
+    <t>75.285,87</t>
+  </si>
+  <si>
+    <t>Atahualpa</t>
+  </si>
+  <si>
+    <t>13.780,22</t>
+  </si>
+  <si>
+    <t>Balsas</t>
+  </si>
+  <si>
+    <t>38.406,58</t>
+  </si>
+  <si>
+    <t>Chilla</t>
+  </si>
+  <si>
+    <t>7.027,09</t>
+  </si>
+  <si>
+    <t>El Guabo</t>
+  </si>
+  <si>
+    <t>287.794,96</t>
+  </si>
+  <si>
+    <t>Huaquillas</t>
+  </si>
+  <si>
+    <t>155.027,82</t>
+  </si>
+  <si>
+    <t>Las Lajas</t>
+  </si>
+  <si>
+    <t>10.641,62</t>
+  </si>
+  <si>
+    <t>Machala</t>
+  </si>
+  <si>
+    <t>1.847.265,46</t>
+  </si>
+  <si>
+    <t>Marcabelí</t>
+  </si>
+  <si>
+    <t>14.123,75</t>
+  </si>
+  <si>
+    <t>Pasaje</t>
+  </si>
+  <si>
+    <t>224.328,04</t>
+  </si>
+  <si>
+    <t>Piñas</t>
+  </si>
+  <si>
+    <t>105.420,15</t>
+  </si>
+  <si>
+    <t>Portovelo</t>
+  </si>
+  <si>
+    <t>51.540,12</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>257.096,72</t>
+  </si>
+  <si>
+    <t>Zaruma</t>
+  </si>
+  <si>
+    <t>86.054,58</t>
+  </si>
+  <si>
+    <t>ESMERALDAS</t>
+  </si>
+  <si>
+    <t>Atacames</t>
+  </si>
+  <si>
+    <t>171.599,58</t>
+  </si>
+  <si>
+    <t>Eloy Alfaro</t>
+  </si>
+  <si>
+    <t>162.767,82</t>
+  </si>
+  <si>
+    <t>Esmeraldas</t>
+  </si>
+  <si>
+    <t>1.617.759,56</t>
+  </si>
+  <si>
+    <t>Muisne</t>
+  </si>
+  <si>
+    <t>78.423,56</t>
+  </si>
+  <si>
+    <t>Quinindé</t>
+  </si>
+  <si>
+    <t>723.807,33</t>
+  </si>
+  <si>
+    <t>Rioverde</t>
+  </si>
+  <si>
+    <t>101.422,95</t>
+  </si>
+  <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>90.679,26</t>
+  </si>
+  <si>
+    <t>GALÁPAGOS</t>
+  </si>
+  <si>
+    <t>Isabela</t>
+  </si>
+  <si>
+    <t>13.484,79</t>
+  </si>
+  <si>
+    <t>San Cristóbal</t>
+  </si>
+  <si>
+    <t>63.640,12</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>150.638,80</t>
+  </si>
+  <si>
+    <t>GUAYAS</t>
+  </si>
+  <si>
+    <t>Alfredo Baquerizo Moreno</t>
+  </si>
+  <si>
+    <t>52.399,90</t>
+  </si>
+  <si>
+    <t>Balao</t>
+  </si>
+  <si>
+    <t>66.172,14</t>
+  </si>
+  <si>
+    <t>Balzar</t>
+  </si>
+  <si>
+    <t>97.146,44</t>
+  </si>
+  <si>
+    <t>Colimes</t>
+  </si>
+  <si>
+    <t>50.287,67</t>
+  </si>
+  <si>
+    <t>Coronel Marcelino Maridueña</t>
+  </si>
+  <si>
+    <t>237.573,44</t>
+  </si>
+  <si>
+    <t>Daule</t>
+  </si>
+  <si>
+    <t>552.764,64</t>
+  </si>
+  <si>
+    <t>Durán</t>
+  </si>
+  <si>
+    <t>1.362.647,98</t>
+  </si>
+  <si>
+    <t>El Empalme</t>
+  </si>
+  <si>
+    <t>143.482,67</t>
+  </si>
+  <si>
+    <t>El Triunfo</t>
+  </si>
+  <si>
+    <t>139.686,05</t>
+  </si>
+  <si>
+    <t>General Antonio Elizalde</t>
+  </si>
+  <si>
+    <t>28.725,36</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>20.289.621,51</t>
+  </si>
+  <si>
+    <t>Isidro Ayora</t>
+  </si>
+  <si>
+    <t>34.946,20</t>
+  </si>
+  <si>
+    <t>Lomas De Sargentillo</t>
+  </si>
+  <si>
+    <t>34.360,94</t>
+  </si>
+  <si>
+    <t>Milagro</t>
+  </si>
+  <si>
+    <t>455.299,26</t>
+  </si>
+  <si>
+    <t>Naranjal</t>
+  </si>
+  <si>
+    <t>270.405,77</t>
+  </si>
+  <si>
+    <t>Naranjito</t>
+  </si>
+  <si>
+    <t>69.004,27</t>
+  </si>
+  <si>
+    <t>Nobol</t>
+  </si>
+  <si>
+    <t>42.574,41</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>38.296,72</t>
+  </si>
+  <si>
+    <t>Pedro Carbo</t>
+  </si>
+  <si>
+    <t>64.274,19</t>
+  </si>
+  <si>
+    <t>Playas (General Villamil)</t>
+  </si>
+  <si>
+    <t>100.360,97</t>
+  </si>
+  <si>
+    <t>Salitre (Urbina Jado)</t>
+  </si>
+  <si>
+    <t>54.281,55</t>
+  </si>
+  <si>
+    <t>Samborondón</t>
+  </si>
+  <si>
+    <t>764.036,12</t>
+  </si>
+  <si>
+    <t>Santa Lucía</t>
+  </si>
+  <si>
+    <t>48.231,83</t>
+  </si>
+  <si>
+    <t>Simón Bolívar</t>
+  </si>
+  <si>
+    <t>87.012,26</t>
+  </si>
+  <si>
+    <t>Yaguachi</t>
+  </si>
+  <si>
+    <t>231.857,16</t>
+  </si>
+  <si>
+    <t>IMBABURA</t>
+  </si>
+  <si>
+    <t>Antonio Ante</t>
+  </si>
+  <si>
+    <t>144.890,28</t>
+  </si>
+  <si>
+    <t>Cotacachi</t>
+  </si>
+  <si>
+    <t>100.036,36</t>
+  </si>
+  <si>
+    <t>Ibarra</t>
+  </si>
+  <si>
+    <t>1.059.524,76</t>
+  </si>
+  <si>
+    <t>Otavalo</t>
+  </si>
+  <si>
+    <t>448.080,38</t>
+  </si>
+  <si>
+    <t>Pimampiro</t>
+  </si>
+  <si>
+    <t>17.437,13</t>
+  </si>
+  <si>
+    <t>San Miguel De Urcuquí</t>
+  </si>
+  <si>
+    <t>41.901,15</t>
+  </si>
+  <si>
+    <t>LOJA</t>
+  </si>
+  <si>
+    <t>Calvas</t>
+  </si>
+  <si>
+    <t>52.845,67</t>
+  </si>
+  <si>
+    <t>Catamayo</t>
+  </si>
+  <si>
+    <t>100.273,27</t>
+  </si>
+  <si>
+    <t>Celica</t>
+  </si>
+  <si>
+    <t>24.027,32</t>
+  </si>
+  <si>
+    <t>Chaguarpamba</t>
+  </si>
+  <si>
+    <t>17.678,46</t>
+  </si>
+  <si>
+    <t>Espíndola</t>
+  </si>
+  <si>
+    <t>24.119,27</t>
+  </si>
+  <si>
+    <t>Gonzanamá</t>
+  </si>
+  <si>
+    <t>20.792,48</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>1.312.999,99</t>
+  </si>
+  <si>
+    <t>Macará</t>
+  </si>
+  <si>
+    <t>57.145,04</t>
+  </si>
+  <si>
+    <t>Olmedo (Loja)</t>
+  </si>
+  <si>
+    <t>11.180,35</t>
+  </si>
+  <si>
+    <t>Paltas</t>
+  </si>
+  <si>
+    <t>40.208,88</t>
+  </si>
+  <si>
+    <t>Pindal</t>
+  </si>
+  <si>
+    <t>17.113,21</t>
+  </si>
+  <si>
+    <t>Puyango</t>
+  </si>
+  <si>
+    <t>27.796,79</t>
+  </si>
+  <si>
+    <t>Quilanga</t>
+  </si>
+  <si>
+    <t>9.265,01</t>
+  </si>
+  <si>
+    <t>Saraguro</t>
+  </si>
+  <si>
+    <t>53.774,16</t>
+  </si>
+  <si>
+    <t>Sozoranga</t>
+  </si>
+  <si>
+    <t>10.400,58</t>
+  </si>
+  <si>
+    <t>Zapotillo</t>
+  </si>
+  <si>
+    <t>19.724,31</t>
+  </si>
+  <si>
+    <t>LOS RÍOS</t>
+  </si>
+  <si>
+    <t>Baba</t>
+  </si>
+  <si>
+    <t>133.518,49</t>
+  </si>
+  <si>
+    <t>Babahoyo</t>
+  </si>
+  <si>
+    <t>850.877,52</t>
+  </si>
+  <si>
+    <t>Buena Fé</t>
+  </si>
+  <si>
+    <t>216.654,90</t>
+  </si>
+  <si>
+    <t>Mocache</t>
+  </si>
+  <si>
+    <t>115.454,87</t>
+  </si>
+  <si>
+    <t>Montalvo</t>
+  </si>
+  <si>
+    <t>100.354,82</t>
+  </si>
+  <si>
+    <t>Palenque</t>
+  </si>
+  <si>
+    <t>64.748,82</t>
+  </si>
+  <si>
+    <t>Puebloviejo</t>
+  </si>
+  <si>
+    <t>158.038,56</t>
+  </si>
+  <si>
+    <t>Quevedo</t>
+  </si>
+  <si>
+    <t>1.103.172,40</t>
+  </si>
+  <si>
+    <t>Quinsaloma</t>
+  </si>
+  <si>
+    <t>27.417,60</t>
+  </si>
+  <si>
+    <t>Urdaneta</t>
+  </si>
+  <si>
+    <t>116.072,42</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>236.433,52</t>
+  </si>
+  <si>
+    <t>Ventanas</t>
+  </si>
+  <si>
+    <t>236.132,91</t>
+  </si>
+  <si>
+    <t>Vinces</t>
+  </si>
+  <si>
+    <t>187.034,05</t>
+  </si>
+  <si>
+    <t>MANABÍ</t>
+  </si>
+  <si>
+    <t>24 De Mayo</t>
+  </si>
+  <si>
+    <t>30.861,45</t>
+  </si>
+  <si>
+    <t>Bolívar (Manabí)</t>
+  </si>
+  <si>
+    <t>87.608,38</t>
+  </si>
+  <si>
+    <t>Chone</t>
+  </si>
+  <si>
+    <t>309.613,32</t>
+  </si>
+  <si>
+    <t>El Carmen</t>
+  </si>
+  <si>
+    <t>214.081,99</t>
+  </si>
+  <si>
+    <t>Flavio Alfaro</t>
+  </si>
+  <si>
+    <t>47.076,80</t>
+  </si>
+  <si>
+    <t>Jama</t>
+  </si>
+  <si>
+    <t>28.885,10</t>
+  </si>
+  <si>
+    <t>Jaramijó</t>
+  </si>
+  <si>
+    <t>188.411,03</t>
+  </si>
+  <si>
+    <t>Jipijapa</t>
+  </si>
+  <si>
+    <t>120.517,63</t>
+  </si>
+  <si>
+    <t>Junín</t>
+  </si>
+  <si>
+    <t>114.987,25</t>
+  </si>
+  <si>
+    <t>Manta</t>
+  </si>
+  <si>
+    <t>1.934.032,42</t>
+  </si>
+  <si>
+    <t>Montecristi</t>
+  </si>
+  <si>
+    <t>634.454,06</t>
+  </si>
+  <si>
+    <t>Olmedo (Manabí)</t>
+  </si>
+  <si>
+    <t>12.801,68</t>
+  </si>
+  <si>
+    <t>Paján</t>
+  </si>
+  <si>
+    <t>50.041,66</t>
+  </si>
+  <si>
+    <t>Pedernales</t>
+  </si>
+  <si>
+    <t>132.225,73</t>
+  </si>
+  <si>
+    <t>Pichincha</t>
+  </si>
+  <si>
+    <t>42.710,61</t>
+  </si>
+  <si>
+    <t>Portoviejo</t>
+  </si>
+  <si>
+    <t>1.604.021,07</t>
+  </si>
+  <si>
+    <t>Puerto López</t>
+  </si>
+  <si>
+    <t>40.219,70</t>
+  </si>
+  <si>
+    <t>Rocafuerte</t>
+  </si>
+  <si>
+    <t>48.927,17</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>58.949,94</t>
+  </si>
+  <si>
+    <t>San Vicente</t>
+  </si>
+  <si>
+    <t>47.916,46</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>189.664,68</t>
+  </si>
+  <si>
+    <t>Tosagua</t>
+  </si>
+  <si>
+    <t>108.451,44</t>
+  </si>
+  <si>
+    <t>MORONA SANTIAGO</t>
+  </si>
+  <si>
+    <t>Gualaquiza</t>
+  </si>
+  <si>
+    <t>46.885,45</t>
+  </si>
+  <si>
+    <t>Huamboya</t>
+  </si>
+  <si>
+    <t>15.535,91</t>
+  </si>
+  <si>
+    <t>Limón-Indanza</t>
+  </si>
+  <si>
+    <t>29.366,93</t>
+  </si>
+  <si>
+    <t>Logroño</t>
+  </si>
+  <si>
+    <t>13.247,18</t>
+  </si>
+  <si>
+    <t>Morona</t>
+  </si>
+  <si>
+    <t>198.879,10</t>
+  </si>
+  <si>
+    <t>Pablo VI</t>
+  </si>
+  <si>
+    <t>5.614,83</t>
+  </si>
+  <si>
+    <t>Palora</t>
+  </si>
+  <si>
+    <t>13.375,26</t>
+  </si>
+  <si>
+    <t>San Juan Bosco</t>
+  </si>
+  <si>
+    <t>12.411,42</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>32.497,84</t>
+  </si>
+  <si>
+    <t>Sucúa</t>
+  </si>
+  <si>
+    <t>56.566,97</t>
+  </si>
+  <si>
+    <t>Taisha</t>
+  </si>
+  <si>
+    <t>23.922,24</t>
+  </si>
+  <si>
+    <t>Tiwintza</t>
+  </si>
+  <si>
+    <t>11.810,93</t>
+  </si>
+  <si>
+    <t>NAPO</t>
+  </si>
+  <si>
+    <t>Archidona</t>
+  </si>
+  <si>
+    <t>58.074,19</t>
+  </si>
+  <si>
+    <t>Carlos Julio Arosemena Tola</t>
+  </si>
+  <si>
+    <t>8.579,15</t>
+  </si>
+  <si>
+    <t>El Chaco</t>
+  </si>
+  <si>
+    <t>168.783,12</t>
+  </si>
+  <si>
+    <t>Quijos</t>
+  </si>
+  <si>
+    <t>31.653,91</t>
+  </si>
+  <si>
+    <t>Tena</t>
+  </si>
+  <si>
+    <t>262.396,32</t>
+  </si>
+  <si>
+    <t>ORELLANA</t>
+  </si>
+  <si>
+    <t>Aguarico</t>
+  </si>
+  <si>
+    <t>13.162,47</t>
+  </si>
+  <si>
+    <t>La Joya De Los Sachas</t>
+  </si>
+  <si>
+    <t>1.921.251,32</t>
+  </si>
+  <si>
+    <t>Loreto</t>
+  </si>
+  <si>
+    <t>54.977,85</t>
+  </si>
+  <si>
+    <t>Orellana</t>
+  </si>
+  <si>
+    <t>705.953,16</t>
+  </si>
+  <si>
+    <t>PASTAZA</t>
+  </si>
+  <si>
+    <t>Arajuno</t>
+  </si>
+  <si>
+    <t>17.586,85</t>
+  </si>
+  <si>
+    <t>Mera</t>
+  </si>
+  <si>
+    <t>23.741,37</t>
+  </si>
+  <si>
+    <t>Pastaza</t>
+  </si>
+  <si>
+    <t>491.408,01</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>13.948,47</t>
+  </si>
+  <si>
+    <t>PICHINCHA</t>
+  </si>
+  <si>
+    <t>Cayambe</t>
+  </si>
+  <si>
+    <t>402.053,04</t>
+  </si>
+  <si>
+    <t>Mejía</t>
+  </si>
+  <si>
+    <t>363.805,65</t>
+  </si>
+  <si>
+    <t>Pedro Moncayo</t>
+  </si>
+  <si>
+    <t>304.088,93</t>
+  </si>
+  <si>
+    <t>Pedro Vicente Maldonado</t>
+  </si>
+  <si>
+    <t>39.201,22</t>
+  </si>
+  <si>
+    <t>Puerto Quito</t>
+  </si>
+  <si>
+    <t>68.309,96</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>23.593.664,02</t>
+  </si>
+  <si>
+    <t>Rumiñahui</t>
+  </si>
+  <si>
+    <t>823.001,49</t>
+  </si>
+  <si>
+    <t>San Miguel De Los Bancos</t>
+  </si>
+  <si>
+    <t>56.117,03</t>
+  </si>
+  <si>
+    <t>SANTA ELENA</t>
+  </si>
+  <si>
+    <t>La Libertad (Santa Elena)</t>
+  </si>
+  <si>
+    <t>493.144,84</t>
+  </si>
+  <si>
+    <t>Salinas (Santa Elena)</t>
+  </si>
+  <si>
+    <t>265.649,29</t>
+  </si>
+  <si>
+    <t>Santa Elena (Santa Elena)</t>
+  </si>
+  <si>
+    <t>395.993,76</t>
+  </si>
+  <si>
+    <t>SANTO DOMINGO</t>
+  </si>
+  <si>
+    <t>La Concordia (Santo Domingo)</t>
+  </si>
+  <si>
+    <t>128.050,69</t>
+  </si>
+  <si>
+    <t>Santo Domingo (Santo Domingo)</t>
+  </si>
+  <si>
+    <t>1.713.424,12</t>
+  </si>
+  <si>
+    <t>SUCUMBÍOS</t>
+  </si>
+  <si>
+    <t>Cascales</t>
+  </si>
+  <si>
+    <t>24.105,90</t>
+  </si>
+  <si>
+    <t>Cuyabeno</t>
+  </si>
+  <si>
+    <t>169.414,91</t>
+  </si>
+  <si>
+    <t>Gonzalo Pizarro</t>
+  </si>
+  <si>
+    <t>19.370,11</t>
+  </si>
+  <si>
+    <t>Lago Agrio</t>
+  </si>
+  <si>
+    <t>788.003,99</t>
+  </si>
+  <si>
+    <t>Putumayo</t>
+  </si>
+  <si>
+    <t>160.077,15</t>
+  </si>
+  <si>
+    <t>Shushufindi</t>
+  </si>
+  <si>
+    <t>423.841,38</t>
+  </si>
+  <si>
+    <t>Sucumbíos</t>
+  </si>
+  <si>
+    <t>8.155,34</t>
+  </si>
+  <si>
+    <t>TUNGURAHUA</t>
+  </si>
+  <si>
+    <t>Ambato</t>
+  </si>
+  <si>
+    <t>2.133.632,40</t>
+  </si>
+  <si>
+    <t>Baños</t>
+  </si>
+  <si>
+    <t>162.134,88</t>
+  </si>
+  <si>
+    <t>Cevallos</t>
+  </si>
+  <si>
+    <t>25.987,97</t>
+  </si>
+  <si>
+    <t>Mocha</t>
+  </si>
+  <si>
+    <t>13.049,55</t>
+  </si>
+  <si>
+    <t>Patate</t>
+  </si>
+  <si>
+    <t>27.663,38</t>
+  </si>
+  <si>
+    <t>Quero</t>
+  </si>
+  <si>
+    <t>27.515,78</t>
+  </si>
+  <si>
+    <t>San Pedro De Pelileo</t>
+  </si>
+  <si>
+    <t>173.159,37</t>
+  </si>
+  <si>
+    <t>Santiago De Píllaro</t>
+  </si>
+  <si>
+    <t>95.401,81</t>
+  </si>
+  <si>
+    <t>Tisaleo</t>
+  </si>
+  <si>
+    <t>23.728,56</t>
+  </si>
+  <si>
+    <t>ZAMORA CHINCHIPE</t>
+  </si>
+  <si>
+    <t>Centinela Del Cóndor</t>
+  </si>
+  <si>
+    <t>14.390,83</t>
+  </si>
+  <si>
+    <t>Chinchipe</t>
+  </si>
+  <si>
+    <t>16.657,77</t>
+  </si>
+  <si>
+    <t>El Pangui</t>
+  </si>
+  <si>
+    <t>24.575,32</t>
+  </si>
+  <si>
+    <t>Nangaritza</t>
+  </si>
+  <si>
+    <t>11.029,80</t>
+  </si>
+  <si>
+    <t>Palanda</t>
+  </si>
+  <si>
+    <t>14.153,14</t>
+  </si>
+  <si>
+    <t>Paquisha</t>
+  </si>
+  <si>
+    <t>7.455,89</t>
+  </si>
+  <si>
+    <t>Yacuambí</t>
+  </si>
+  <si>
+    <t>10.153,69</t>
+  </si>
+  <si>
+    <t>Yanzatza</t>
+  </si>
+  <si>
+    <t>68.735,49</t>
+  </si>
+  <si>
+    <t>Zamora</t>
+  </si>
+  <si>
+    <t>125.516,06</t>
+  </si>
+  <si>
+    <t>CUENTAS CANTONALES</t>
+  </si>
+  <si>
+    <t>Valor Agregado Bruto en Miles de Dólares:  2016 - 2016</t>
+  </si>
+  <si>
+    <t>Consulta por Cantón</t>
+  </si>
+  <si>
+    <t>Consulta por Provincia</t>
+  </si>
+  <si>
+    <t>(*)</t>
+  </si>
+  <si>
+    <t>(*) Al seleccionar muchas variables consecutivas el gráfico tiende a distorsionarse, sin embargo la tabla de datos presentará sin ningún problema toda la información requerida.</t>
+  </si>
+  <si>
+    <t>CANTÓN</t>
+  </si>
+  <si>
+    <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+  </si>
+  <si>
+    <t>2. Explotación de minas y canteras</t>
+  </si>
+  <si>
+    <t>3. Manufactura</t>
+  </si>
+  <si>
+    <t>4. Suministro de electricidad y de agua</t>
+  </si>
+  <si>
+    <t>5. Construcción</t>
+  </si>
+  <si>
+    <t>6. Comercio</t>
+  </si>
+  <si>
+    <t>7. Alojamiento y servicios de comida</t>
+  </si>
+  <si>
+    <t>8. Transporte, información y comunicaciones</t>
+  </si>
+  <si>
+    <t>9. Actividades financieras</t>
+  </si>
+  <si>
+    <t>10. Actividades profesionales e inmobiliarias</t>
+  </si>
+  <si>
+    <t>11. Administración pública</t>
+  </si>
+  <si>
+    <t>12. Enseñanza</t>
+  </si>
+  <si>
+    <t>13. Salud</t>
+  </si>
+  <si>
+    <t>14. Otros servicios</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
-    <t>AZUAY</t>
-  </si>
-  <si>
-    <t>Camilo Ponce Enríquez</t>
-  </si>
-  <si>
-    <t>48.700,39</t>
-  </si>
-  <si>
-    <t>Chordeleg</t>
-  </si>
-  <si>
-    <t>24.988,87</t>
-  </si>
-  <si>
-    <t>Cuenca</t>
-  </si>
-  <si>
-    <t>4.733.506,72</t>
-  </si>
-  <si>
-    <t>El Pan</t>
-  </si>
-  <si>
-    <t>8.538,72</t>
-  </si>
-  <si>
-    <t>Girón</t>
-  </si>
-  <si>
-    <t>25.822,98</t>
-  </si>
-  <si>
-    <t>Guachapala</t>
-  </si>
-  <si>
-    <t>8.496,07</t>
-  </si>
-  <si>
-    <t>Gualaceo</t>
-  </si>
-  <si>
-    <t>95.711,26</t>
-  </si>
-  <si>
-    <t>Nabón</t>
-  </si>
-  <si>
-    <t>24.446,56</t>
-  </si>
-  <si>
-    <t>Oña</t>
-  </si>
-  <si>
-    <t>6.244,96</t>
-  </si>
-  <si>
-    <t>Paute</t>
-  </si>
-  <si>
-    <t>71.143,57</t>
-  </si>
-  <si>
-    <t>Pucará</t>
-  </si>
-  <si>
-    <t>12.297,00</t>
-  </si>
-  <si>
-    <t>San Fernando</t>
-  </si>
-  <si>
-    <t>7.853,06</t>
-  </si>
-  <si>
-    <t>Santa Isabel</t>
-  </si>
-  <si>
-    <t>49.798,24</t>
-  </si>
-  <si>
-    <t>Sevilla De Oro</t>
-  </si>
-  <si>
-    <t>176.674,84</t>
-  </si>
-  <si>
-    <t>Sigsig</t>
-  </si>
-  <si>
-    <t>49.146,68</t>
-  </si>
-  <si>
-    <t>BOLÍVAR</t>
-  </si>
-  <si>
-    <t>Caluma</t>
-  </si>
-  <si>
-    <t>54.429,58</t>
-  </si>
-  <si>
-    <t>Chillanes</t>
-  </si>
-  <si>
-    <t>26.687,09</t>
-  </si>
-  <si>
-    <t>Chimbo</t>
-  </si>
-  <si>
-    <t>33.888,90</t>
-  </si>
-  <si>
-    <t>Echeandía</t>
-  </si>
-  <si>
-    <t>32.633,50</t>
-  </si>
-  <si>
-    <t>Guaranda</t>
-  </si>
-  <si>
-    <t>424.898,10</t>
-  </si>
-  <si>
-    <t>Las Naves</t>
-  </si>
-  <si>
-    <t>17.422,29</t>
-  </si>
-  <si>
-    <t>San Miguel</t>
-  </si>
-  <si>
-    <t>49.011,65</t>
-  </si>
-  <si>
-    <t>CAÑAR</t>
-  </si>
-  <si>
-    <t>Azogues</t>
-  </si>
-  <si>
-    <t>386.942,13</t>
-  </si>
-  <si>
-    <t>Biblián</t>
-  </si>
-  <si>
-    <t>72.111,92</t>
-  </si>
-  <si>
-    <t>Cañar</t>
-  </si>
-  <si>
-    <t>174.362,92</t>
-  </si>
-  <si>
-    <t>Déleg</t>
-  </si>
-  <si>
-    <t>15.296,49</t>
-  </si>
-  <si>
-    <t>El Tambo</t>
-  </si>
-  <si>
-    <t>56.209,18</t>
-  </si>
-  <si>
-    <t>La Troncal</t>
-  </si>
-  <si>
-    <t>347.252,94</t>
-  </si>
-  <si>
-    <t>Suscal</t>
-  </si>
-  <si>
-    <t>13.016,90</t>
-  </si>
-  <si>
-    <t>CARCHI</t>
-  </si>
-  <si>
-    <t>Bolívar</t>
-  </si>
-  <si>
-    <t>42.478,44</t>
-  </si>
-  <si>
-    <t>Espejo</t>
-  </si>
-  <si>
-    <t>67.185,32</t>
-  </si>
-  <si>
-    <t>Mira</t>
-  </si>
-  <si>
-    <t>35.324,11</t>
-  </si>
-  <si>
-    <t>Montúfar</t>
-  </si>
-  <si>
-    <t>95.948,01</t>
-  </si>
-  <si>
-    <t>San Pedro de Huaca</t>
-  </si>
-  <si>
-    <t>28.338,62</t>
-  </si>
-  <si>
-    <t>Tulcán</t>
-  </si>
-  <si>
-    <t>394.700,41</t>
-  </si>
-  <si>
-    <t>CHIMBORAZO</t>
-  </si>
-  <si>
-    <t>Alausí</t>
-  </si>
-  <si>
-    <t>69.015,41</t>
-  </si>
-  <si>
-    <t>Chambo</t>
-  </si>
-  <si>
-    <t>30.238,12</t>
-  </si>
-  <si>
-    <t>Chunchi</t>
-  </si>
-  <si>
-    <t>29.590,07</t>
-  </si>
-  <si>
-    <t>Colta</t>
-  </si>
-  <si>
-    <t>55.403,94</t>
-  </si>
-  <si>
-    <t>Cumandá</t>
-  </si>
-  <si>
-    <t>52.080,25</t>
-  </si>
-  <si>
-    <t>Guamote</t>
-  </si>
-  <si>
-    <t>90.722,53</t>
-  </si>
-  <si>
-    <t>Guano</t>
-  </si>
-  <si>
-    <t>83.169,42</t>
-  </si>
-  <si>
-    <t>Pallatanga</t>
-  </si>
-  <si>
-    <t>21.522,28</t>
-  </si>
-  <si>
-    <t>Penipe</t>
-  </si>
-  <si>
-    <t>12.502,04</t>
-  </si>
-  <si>
-    <t>Riobamba</t>
-  </si>
-  <si>
-    <t>1.410.211,23</t>
-  </si>
-  <si>
-    <t>COTOPAXI</t>
-  </si>
-  <si>
-    <t>La Maná</t>
-  </si>
-  <si>
-    <t>161.175,52</t>
-  </si>
-  <si>
-    <t>Latacunga</t>
-  </si>
-  <si>
-    <t>1.252.001,28</t>
-  </si>
-  <si>
-    <t>Pangua</t>
-  </si>
-  <si>
-    <t>42.311,91</t>
-  </si>
-  <si>
-    <t>Pujilí</t>
-  </si>
-  <si>
-    <t>152.143,37</t>
-  </si>
-  <si>
-    <t>Salcedo</t>
-  </si>
-  <si>
-    <t>271.814,55</t>
-  </si>
-  <si>
-    <t>Saquisilí</t>
-  </si>
-  <si>
-    <t>46.060,41</t>
-  </si>
-  <si>
-    <t>Sigchos</t>
-  </si>
-  <si>
-    <t>27.353,67</t>
-  </si>
-  <si>
-    <t>EL ORO</t>
-  </si>
-  <si>
-    <t>Arenillas</t>
-  </si>
-  <si>
-    <t>73.853,19</t>
-  </si>
-  <si>
-    <t>Atahualpa</t>
-  </si>
-  <si>
-    <t>12.770,24</t>
-  </si>
-  <si>
-    <t>Balsas</t>
-  </si>
-  <si>
-    <t>43.129,73</t>
-  </si>
-  <si>
-    <t>Chilla</t>
-  </si>
-  <si>
-    <t>6.970,90</t>
-  </si>
-  <si>
-    <t>El Guabo</t>
-  </si>
-  <si>
-    <t>321.121,71</t>
-  </si>
-  <si>
-    <t>Huaquillas</t>
-  </si>
-  <si>
-    <t>159.294,09</t>
-  </si>
-  <si>
-    <t>Las Lajas</t>
-  </si>
-  <si>
-    <t>9.003,28</t>
-  </si>
-  <si>
-    <t>Machala</t>
-  </si>
-  <si>
-    <t>2.141.714,30</t>
-  </si>
-  <si>
-    <t>Marcabelí</t>
-  </si>
-  <si>
-    <t>13.789,40</t>
-  </si>
-  <si>
-    <t>Pasaje</t>
-  </si>
-  <si>
-    <t>253.585,40</t>
-  </si>
-  <si>
-    <t>Piñas</t>
-  </si>
-  <si>
-    <t>113.961,72</t>
-  </si>
-  <si>
-    <t>Portovelo</t>
-  </si>
-  <si>
-    <t>50.089,62</t>
-  </si>
-  <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t>286.609,92</t>
-  </si>
-  <si>
-    <t>Zaruma</t>
-  </si>
-  <si>
-    <t>84.958,74</t>
-  </si>
-  <si>
-    <t>ESMERALDAS</t>
-  </si>
-  <si>
-    <t>Atacames</t>
-  </si>
-  <si>
-    <t>198.244,04</t>
-  </si>
-  <si>
-    <t>Eloy Alfaro</t>
-  </si>
-  <si>
-    <t>220.477,10</t>
-  </si>
-  <si>
-    <t>Esmeraldas</t>
-  </si>
-  <si>
-    <t>1.842.087,74</t>
-  </si>
-  <si>
-    <t>Muisne</t>
-  </si>
-  <si>
-    <t>87.861,77</t>
-  </si>
-  <si>
-    <t>Quinindé</t>
-  </si>
-  <si>
-    <t>541.912,75</t>
-  </si>
-  <si>
-    <t>Rioverde</t>
-  </si>
-  <si>
-    <t>95.401,24</t>
-  </si>
-  <si>
-    <t>San Lorenzo</t>
-  </si>
-  <si>
-    <t>100.847,53</t>
-  </si>
-  <si>
-    <t>GALÁPAGOS</t>
-  </si>
-  <si>
-    <t>Isabela</t>
-  </si>
-  <si>
-    <t>14.084,97</t>
-  </si>
-  <si>
-    <t>San Cristóbal</t>
-  </si>
-  <si>
-    <t>61.953,72</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>178.495,16</t>
-  </si>
-  <si>
-    <t>GUAYAS</t>
-  </si>
-  <si>
-    <t>Alfredo Baquerizo Moreno</t>
-  </si>
-  <si>
-    <t>43.986,99</t>
-  </si>
-  <si>
-    <t>Balao</t>
-  </si>
-  <si>
-    <t>55.763,52</t>
-  </si>
-  <si>
-    <t>Balzar</t>
-  </si>
-  <si>
-    <t>90.136,19</t>
-  </si>
-  <si>
-    <t>Colimes</t>
-  </si>
-  <si>
-    <t>55.104,63</t>
-  </si>
-  <si>
-    <t>Coronel Marcelino Maridueña</t>
-  </si>
-  <si>
-    <t>267.247,34</t>
-  </si>
-  <si>
-    <t>Daule</t>
-  </si>
-  <si>
-    <t>489.409,56</t>
-  </si>
-  <si>
-    <t>Durán</t>
-  </si>
-  <si>
-    <t>1.552.315,36</t>
-  </si>
-  <si>
-    <t>El Empalme</t>
-  </si>
-  <si>
-    <t>173.918,36</t>
-  </si>
-  <si>
-    <t>El Triunfo</t>
-  </si>
-  <si>
-    <t>150.333,35</t>
-  </si>
-  <si>
-    <t>General Antonio Elizalde</t>
-  </si>
-  <si>
-    <t>30.872,59</t>
-  </si>
-  <si>
-    <t>Guayaquil</t>
-  </si>
-  <si>
-    <t>21.082.271,57</t>
-  </si>
-  <si>
-    <t>Isidro Ayora</t>
-  </si>
-  <si>
-    <t>47.077,50</t>
-  </si>
-  <si>
-    <t>Lomas De Sargentillo</t>
-  </si>
-  <si>
-    <t>27.875,68</t>
-  </si>
-  <si>
-    <t>Milagro</t>
-  </si>
-  <si>
-    <t>543.547,88</t>
-  </si>
-  <si>
-    <t>Naranjal</t>
-  </si>
-  <si>
-    <t>245.706,03</t>
-  </si>
-  <si>
-    <t>Naranjito</t>
-  </si>
-  <si>
-    <t>69.424,60</t>
-  </si>
-  <si>
-    <t>Nobol</t>
-  </si>
-  <si>
-    <t>47.133,79</t>
-  </si>
-  <si>
-    <t>Palestina</t>
-  </si>
-  <si>
-    <t>40.664,12</t>
-  </si>
-  <si>
-    <t>Pedro Carbo</t>
-  </si>
-  <si>
-    <t>62.732,64</t>
-  </si>
-  <si>
-    <t>Playas (General Villamil)</t>
-  </si>
-  <si>
-    <t>104.631,96</t>
-  </si>
-  <si>
-    <t>Salitre (Urbina Jado)</t>
-  </si>
-  <si>
-    <t>54.467,19</t>
-  </si>
-  <si>
-    <t>Samborondón</t>
-  </si>
-  <si>
-    <t>948.676,99</t>
-  </si>
-  <si>
-    <t>Santa Lucía</t>
-  </si>
-  <si>
-    <t>49.780,39</t>
-  </si>
-  <si>
-    <t>Simón Bolívar</t>
-  </si>
-  <si>
-    <t>99.727,02</t>
-  </si>
-  <si>
-    <t>Yaguachi</t>
-  </si>
-  <si>
-    <t>304.325,85</t>
-  </si>
-  <si>
-    <t>IMBABURA</t>
-  </si>
-  <si>
-    <t>Antonio Ante</t>
-  </si>
-  <si>
-    <t>150.555,70</t>
-  </si>
-  <si>
-    <t>Cotacachi</t>
-  </si>
-  <si>
-    <t>108.595,45</t>
-  </si>
-  <si>
-    <t>Ibarra</t>
-  </si>
-  <si>
-    <t>1.184.018,15</t>
-  </si>
-  <si>
-    <t>Otavalo</t>
-  </si>
-  <si>
-    <t>417.950,24</t>
-  </si>
-  <si>
-    <t>Pimampiro</t>
-  </si>
-  <si>
-    <t>15.768,64</t>
-  </si>
-  <si>
-    <t>San Miguel De Urcuquí</t>
-  </si>
-  <si>
-    <t>53.508,39</t>
-  </si>
-  <si>
-    <t>LOJA</t>
-  </si>
-  <si>
-    <t>Calvas</t>
-  </si>
-  <si>
-    <t>50.184,05</t>
-  </si>
-  <si>
-    <t>Catamayo</t>
-  </si>
-  <si>
-    <t>90.081,05</t>
-  </si>
-  <si>
-    <t>Celica</t>
-  </si>
-  <si>
-    <t>21.033,39</t>
-  </si>
-  <si>
-    <t>Chaguarpamba</t>
-  </si>
-  <si>
-    <t>16.883,12</t>
-  </si>
-  <si>
-    <t>Espíndola</t>
-  </si>
-  <si>
-    <t>19.822,56</t>
-  </si>
-  <si>
-    <t>Gonzanamá</t>
-  </si>
-  <si>
-    <t>24.057,04</t>
-  </si>
-  <si>
-    <t>Loja</t>
-  </si>
-  <si>
-    <t>1.308.516,04</t>
-  </si>
-  <si>
-    <t>Macará</t>
-  </si>
-  <si>
-    <t>50.095,66</t>
-  </si>
-  <si>
-    <t>Olmedo</t>
-  </si>
-  <si>
-    <t>11.213,53</t>
-  </si>
-  <si>
-    <t>Paltas</t>
-  </si>
-  <si>
-    <t>37.888,26</t>
-  </si>
-  <si>
-    <t>Pindal</t>
-  </si>
-  <si>
-    <t>15.640,16</t>
-  </si>
-  <si>
-    <t>Puyango</t>
-  </si>
-  <si>
-    <t>31.285,88</t>
-  </si>
-  <si>
-    <t>Quilanga</t>
-  </si>
-  <si>
-    <t>10.071,01</t>
-  </si>
-  <si>
-    <t>Saraguro</t>
-  </si>
-  <si>
-    <t>59.293,27</t>
-  </si>
-  <si>
-    <t>Sozoranga</t>
-  </si>
-  <si>
-    <t>9.734,68</t>
-  </si>
-  <si>
-    <t>Zapotillo</t>
-  </si>
-  <si>
-    <t>18.745,25</t>
-  </si>
-  <si>
-    <t>LOS RÍOS</t>
-  </si>
-  <si>
-    <t>Baba</t>
-  </si>
-  <si>
-    <t>165.201,26</t>
-  </si>
-  <si>
-    <t>Babahoyo</t>
-  </si>
-  <si>
-    <t>845.908,04</t>
-  </si>
-  <si>
-    <t>Buena Fé</t>
-  </si>
-  <si>
-    <t>247.510,80</t>
-  </si>
-  <si>
-    <t>Mocache</t>
-  </si>
-  <si>
-    <t>145.393,90</t>
-  </si>
-  <si>
-    <t>Montalvo</t>
-  </si>
-  <si>
-    <t>95.879,98</t>
-  </si>
-  <si>
-    <t>Palenque</t>
-  </si>
-  <si>
-    <t>58.098,94</t>
-  </si>
-  <si>
-    <t>Puebloviejo</t>
-  </si>
-  <si>
-    <t>198.842,03</t>
-  </si>
-  <si>
-    <t>Quevedo</t>
-  </si>
-  <si>
-    <t>943.398,50</t>
-  </si>
-  <si>
-    <t>Quinsaloma</t>
-  </si>
-  <si>
-    <t>37.989,72</t>
-  </si>
-  <si>
-    <t>Urdaneta</t>
-  </si>
-  <si>
-    <t>101.410,36</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>260.307,25</t>
-  </si>
-  <si>
-    <t>Ventanas</t>
-  </si>
-  <si>
-    <t>268.904,50</t>
-  </si>
-  <si>
-    <t>Vinces</t>
-  </si>
-  <si>
-    <t>188.253,89</t>
-  </si>
-  <si>
-    <t>MANABÍ</t>
-  </si>
-  <si>
-    <t>24 De Mayo</t>
-  </si>
-  <si>
-    <t>32.867,59</t>
-  </si>
-  <si>
-    <t>88.617,14</t>
-  </si>
-  <si>
-    <t>Chone</t>
-  </si>
-  <si>
-    <t>288.262,31</t>
-  </si>
-  <si>
-    <t>El Carmen</t>
-  </si>
-  <si>
-    <t>230.106,32</t>
-  </si>
-  <si>
-    <t>Flavio Alfaro</t>
-  </si>
-  <si>
-    <t>43.572,24</t>
-  </si>
-  <si>
-    <t>Jama</t>
-  </si>
-  <si>
-    <t>32.581,87</t>
-  </si>
-  <si>
-    <t>Jaramijó</t>
-  </si>
-  <si>
-    <t>240.970,74</t>
-  </si>
-  <si>
-    <t>Jipijapa</t>
-  </si>
-  <si>
-    <t>116.284,87</t>
-  </si>
-  <si>
-    <t>Junín</t>
-  </si>
-  <si>
-    <t>146.767,18</t>
-  </si>
-  <si>
-    <t>Manta</t>
-  </si>
-  <si>
-    <t>1.849.299,44</t>
-  </si>
-  <si>
-    <t>Montecristi</t>
-  </si>
-  <si>
-    <t>659.769,89</t>
-  </si>
-  <si>
-    <t>13.358,26</t>
-  </si>
-  <si>
-    <t>Paján</t>
-  </si>
-  <si>
-    <t>52.329,28</t>
-  </si>
-  <si>
-    <t>Pedernales</t>
-  </si>
-  <si>
-    <t>128.480,48</t>
-  </si>
-  <si>
-    <t>Pichincha</t>
-  </si>
-  <si>
-    <t>42.251,74</t>
-  </si>
-  <si>
-    <t>Portoviejo</t>
-  </si>
-  <si>
-    <t>1.580.563,51</t>
-  </si>
-  <si>
-    <t>Puerto López</t>
-  </si>
-  <si>
-    <t>42.533,56</t>
-  </si>
-  <si>
-    <t>Rocafuerte</t>
-  </si>
-  <si>
-    <t>56.999,28</t>
-  </si>
-  <si>
-    <t>Santa Ana</t>
-  </si>
-  <si>
-    <t>62.482,19</t>
-  </si>
-  <si>
-    <t>San Vicente</t>
-  </si>
-  <si>
-    <t>47.652,57</t>
-  </si>
-  <si>
-    <t>Sucre</t>
-  </si>
-  <si>
-    <t>205.934,49</t>
-  </si>
-  <si>
-    <t>Tosagua</t>
-  </si>
-  <si>
-    <t>100.939,60</t>
-  </si>
-  <si>
-    <t>MORONA SANTIAGO</t>
-  </si>
-  <si>
-    <t>Gualaquiza</t>
-  </si>
-  <si>
-    <t>50.965,22</t>
-  </si>
-  <si>
-    <t>Huamboya</t>
-  </si>
-  <si>
-    <t>16.939,30</t>
-  </si>
-  <si>
-    <t>Limón-Indanza</t>
-  </si>
-  <si>
-    <t>31.644,93</t>
-  </si>
-  <si>
-    <t>Logroño</t>
-  </si>
-  <si>
-    <t>13.761,72</t>
-  </si>
-  <si>
-    <t>Morona</t>
-  </si>
-  <si>
-    <t>225.194,58</t>
-  </si>
-  <si>
-    <t>Pablo VI</t>
-  </si>
-  <si>
-    <t>5.138,91</t>
-  </si>
-  <si>
-    <t>Palora</t>
-  </si>
-  <si>
-    <t>14.984,14</t>
-  </si>
-  <si>
-    <t>San Juan Bosco</t>
-  </si>
-  <si>
-    <t>11.378,38</t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>33.349,70</t>
-  </si>
-  <si>
-    <t>Sucúa</t>
-  </si>
-  <si>
-    <t>65.472,49</t>
-  </si>
-  <si>
-    <t>Taisha</t>
-  </si>
-  <si>
-    <t>27.825,64</t>
-  </si>
-  <si>
-    <t>Tiwintza</t>
-  </si>
-  <si>
-    <t>11.216,26</t>
-  </si>
-  <si>
-    <t>NAPO</t>
-  </si>
-  <si>
-    <t>Archidona</t>
-  </si>
-  <si>
-    <t>57.505,32</t>
-  </si>
-  <si>
-    <t>Carlos Julio Arosemena Tola</t>
-  </si>
-  <si>
-    <t>6.446,07</t>
-  </si>
-  <si>
-    <t>El Chaco</t>
-  </si>
-  <si>
-    <t>133.089,87</t>
-  </si>
-  <si>
-    <t>Quijos</t>
-  </si>
-  <si>
-    <t>28.644,95</t>
-  </si>
-  <si>
-    <t>Tena</t>
-  </si>
-  <si>
-    <t>237.682,17</t>
-  </si>
-  <si>
-    <t>ORELLANA</t>
-  </si>
-  <si>
-    <t>Aguarico</t>
-  </si>
-  <si>
-    <t>11.232,98</t>
-  </si>
-  <si>
-    <t>La Joya De Los Sachas</t>
-  </si>
-  <si>
-    <t>3.480.327,62</t>
-  </si>
-  <si>
-    <t>Loreto</t>
-  </si>
-  <si>
-    <t>61.011,75</t>
-  </si>
-  <si>
-    <t>Orellana</t>
-  </si>
-  <si>
-    <t>1.111.757,54</t>
-  </si>
-  <si>
-    <t>PASTAZA</t>
-  </si>
-  <si>
-    <t>Arajuno</t>
-  </si>
-  <si>
-    <t>15.841,17</t>
-  </si>
-  <si>
-    <t>Mera</t>
-  </si>
-  <si>
-    <t>28.099,81</t>
-  </si>
-  <si>
-    <t>Pastaza</t>
-  </si>
-  <si>
-    <t>657.170,21</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>12.732,48</t>
-  </si>
-  <si>
-    <t>PICHINCHA</t>
-  </si>
-  <si>
-    <t>Cayambe</t>
-  </si>
-  <si>
-    <t>353.576,63</t>
-  </si>
-  <si>
-    <t>Mejía</t>
-  </si>
-  <si>
-    <t>375.339,46</t>
-  </si>
-  <si>
-    <t>Pedro Moncayo</t>
-  </si>
-  <si>
-    <t>289.271,45</t>
-  </si>
-  <si>
-    <t>Pedro Vicente Maldonado</t>
-  </si>
-  <si>
-    <t>39.709,52</t>
-  </si>
-  <si>
-    <t>Puerto Quito</t>
-  </si>
-  <si>
-    <t>60.041,42</t>
-  </si>
-  <si>
-    <t>Quito</t>
-  </si>
-  <si>
-    <t>24.572.228,65</t>
-  </si>
-  <si>
-    <t>Rumiñahui</t>
-  </si>
-  <si>
-    <t>830.512,91</t>
-  </si>
-  <si>
-    <t>San Miguel De Los Bancos</t>
-  </si>
-  <si>
-    <t>50.964,88</t>
-  </si>
-  <si>
-    <t>SANTA ELENA</t>
-  </si>
-  <si>
-    <t>La Libertad</t>
-  </si>
-  <si>
-    <t>711.090,37</t>
-  </si>
-  <si>
-    <t>Salinas</t>
-  </si>
-  <si>
-    <t>333.798,40</t>
-  </si>
-  <si>
-    <t>Santa Elena</t>
-  </si>
-  <si>
-    <t>502.994,34</t>
-  </si>
-  <si>
-    <t>SANTO DOMINGO</t>
-  </si>
-  <si>
-    <t>La Concordia</t>
-  </si>
-  <si>
-    <t>115.135,71</t>
-  </si>
-  <si>
-    <t>Santo Domingo</t>
-  </si>
-  <si>
-    <t>1.922.544,77</t>
-  </si>
-  <si>
-    <t>SUCUMBÍOS</t>
-  </si>
-  <si>
-    <t>Cascales</t>
-  </si>
-  <si>
-    <t>23.022,70</t>
-  </si>
-  <si>
-    <t>Cuyabeno</t>
-  </si>
-  <si>
-    <t>155.933,50</t>
-  </si>
-  <si>
-    <t>Gonzalo Pizarro</t>
-  </si>
-  <si>
-    <t>21.319,50</t>
-  </si>
-  <si>
-    <t>Lago Agrio</t>
-  </si>
-  <si>
-    <t>1.028.704,27</t>
-  </si>
-  <si>
-    <t>Putumayo</t>
-  </si>
-  <si>
-    <t>173.407,12</t>
-  </si>
-  <si>
-    <t>Shushufindi</t>
-  </si>
-  <si>
-    <t>478.752,16</t>
-  </si>
-  <si>
-    <t>Sucumbíos</t>
-  </si>
-  <si>
-    <t>6.887,16</t>
-  </si>
-  <si>
     <t>TOTAL NACIONAL</t>
   </si>
   <si>
-    <t>99.955.953,00</t>
-  </si>
-  <si>
-    <t>TUNGURAHUA</t>
-  </si>
-  <si>
-    <t>Ambato</t>
-  </si>
-  <si>
-    <t>2.252.163,53</t>
-  </si>
-  <si>
-    <t>Baños</t>
-  </si>
-  <si>
-    <t>174.910,88</t>
-  </si>
-  <si>
-    <t>Cevallos</t>
-  </si>
-  <si>
-    <t>29.214,75</t>
-  </si>
-  <si>
-    <t>Mocha</t>
-  </si>
-  <si>
-    <t>12.970,92</t>
-  </si>
-  <si>
-    <t>Patate</t>
-  </si>
-  <si>
-    <t>32.708,88</t>
-  </si>
-  <si>
-    <t>Quero</t>
-  </si>
-  <si>
-    <t>28.311,57</t>
-  </si>
-  <si>
-    <t>San Pedro De Pelileo</t>
-  </si>
-  <si>
-    <t>196.619,29</t>
-  </si>
-  <si>
-    <t>Santiago De Píllaro</t>
-  </si>
-  <si>
-    <t>112.839,08</t>
-  </si>
-  <si>
-    <t>Tisaleo</t>
-  </si>
-  <si>
-    <t>26.305,77</t>
-  </si>
-  <si>
-    <t>ZAMORA CHINCHIPE</t>
-  </si>
-  <si>
-    <t>Centinela Del Cóndor</t>
-  </si>
-  <si>
-    <t>15.812,45</t>
-  </si>
-  <si>
-    <t>Chinchipe</t>
-  </si>
-  <si>
-    <t>17.044,81</t>
-  </si>
-  <si>
-    <t>El Pangui</t>
-  </si>
-  <si>
-    <t>26.276,69</t>
-  </si>
-  <si>
-    <t>Nangaritza</t>
-  </si>
-  <si>
-    <t>10.745,94</t>
-  </si>
-  <si>
-    <t>Palanda</t>
-  </si>
-  <si>
-    <t>15.092,40</t>
-  </si>
-  <si>
-    <t>Paquisha</t>
-  </si>
-  <si>
-    <t>7.169,46</t>
-  </si>
-  <si>
-    <t>Yacuambí</t>
-  </si>
-  <si>
-    <t>11.154,94</t>
-  </si>
-  <si>
-    <t>Yanzatza</t>
-  </si>
-  <si>
-    <t>67.558,03</t>
-  </si>
-  <si>
-    <t>Zamora</t>
-  </si>
-  <si>
-    <t>131.566,47</t>
-  </si>
-  <si>
-    <t>CUENTAS CANTONALES</t>
-  </si>
-  <si>
-    <t>Valor Agregado Bruto en Miles de Dólares:  2018 - 2018</t>
-  </si>
-  <si>
-    <t>Consulta por Cantón</t>
-  </si>
-  <si>
-    <t>Consulta por Provincia</t>
-  </si>
-  <si>
-    <t>(*)</t>
-  </si>
-  <si>
-    <t>(*) Al seleccionar muchas variables consecutivas el gráfico tiende a distorsionarse, sin embargo la tabla de datos presentará sin ningún problema toda la información requerida.</t>
-  </si>
-  <si>
-    <t>CANTÓN</t>
-  </si>
-  <si>
-    <t>1. Agricultura, ganadería, silvicultura y pesca</t>
-  </si>
-  <si>
-    <t>2. Explotación de minas y canteras</t>
-  </si>
-  <si>
-    <t>3. Manufactura</t>
-  </si>
-  <si>
-    <t>4. Suministro de electricidad y de agua</t>
-  </si>
-  <si>
-    <t>5. Construcción</t>
-  </si>
-  <si>
-    <t>6. Comercio</t>
-  </si>
-  <si>
-    <t>7. Alojamiento y servicios de comida</t>
-  </si>
-  <si>
-    <t>8. Transporte, información y comunicaciones</t>
-  </si>
-  <si>
-    <t>9. Actividades financieras</t>
-  </si>
-  <si>
-    <t>10. Actividades profesionales e inmobiliarias</t>
-  </si>
-  <si>
-    <t>11. Administración pública</t>
-  </si>
-  <si>
-    <t>12. Enseñanza</t>
-  </si>
-  <si>
-    <t>13. Salud</t>
-  </si>
-  <si>
-    <t>14. Otros servicios</t>
-  </si>
-  <si>
     <t>CUENTAS CANTONALES 2007 - 2016</t>
   </si>
   <si>
@@ -1559,26 +1565,26 @@
     <t>ROCAFUERTE</t>
   </si>
   <si>
+    <t>SAN VICENTE</t>
+  </si>
+  <si>
     <t>SANTA ANA</t>
   </si>
   <si>
-    <t>SAN VICENTE</t>
-  </si>
-  <si>
     <t>SUCRE</t>
   </si>
   <si>
     <t>TOSAGUA</t>
-  </si>
-  <si>
-    <t>MANABI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1628,6 +1634,11 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1705,8 +1716,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1731,12 +1743,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1759,8 +1767,15 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2171,10 +2186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J233"/>
+  <dimension ref="B1:J232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:F231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2195,36 +2210,36 @@
   <sheetData>
     <row r="1" spans="2:10" s="1" customFormat="1" ht="3.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:10" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:10" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:10" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="2:10" s="1" customFormat="1" ht="266.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:10" s="1" customFormat="1" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -2233,16 +2248,16 @@
       </c>
     </row>
     <row r="8" spans="2:10" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="2:10" s="1" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="2">
@@ -4189,10 +4204,10 @@
         <v>290</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4203,10 +4218,10 @@
         <v>290</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4217,10 +4232,10 @@
         <v>290</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4231,10 +4246,10 @@
         <v>290</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4245,10 +4260,10 @@
         <v>290</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4259,10 +4274,10 @@
         <v>290</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4273,10 +4288,10 @@
         <v>290</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4287,10 +4302,10 @@
         <v>290</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4301,10 +4316,10 @@
         <v>290</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4315,10 +4330,10 @@
         <v>290</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4329,10 +4344,10 @@
         <v>290</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4343,10 +4358,10 @@
         <v>290</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4357,10 +4372,10 @@
         <v>290</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4371,10 +4386,10 @@
         <v>290</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="162" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4385,10 +4400,10 @@
         <v>290</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4399,10 +4414,10 @@
         <v>290</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4413,10 +4428,10 @@
         <v>290</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4427,10 +4442,10 @@
         <v>290</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4441,10 +4456,10 @@
         <v>290</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4455,10 +4470,10 @@
         <v>290</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4469,10 +4484,10 @@
         <v>290</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4480,13 +4495,13 @@
         <v>4</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="170" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4494,13 +4509,13 @@
         <v>4</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4508,13 +4523,13 @@
         <v>4</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="172" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4522,13 +4537,13 @@
         <v>4</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4536,13 +4551,13 @@
         <v>4</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="174" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4550,13 +4565,13 @@
         <v>4</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="175" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4564,13 +4579,13 @@
         <v>4</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="176" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4578,13 +4593,13 @@
         <v>4</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="177" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4592,13 +4607,13 @@
         <v>4</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4606,13 +4621,13 @@
         <v>4</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4620,13 +4635,13 @@
         <v>4</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4634,13 +4649,13 @@
         <v>4</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4648,13 +4663,13 @@
         <v>4</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4662,13 +4677,13 @@
         <v>4</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4676,13 +4691,13 @@
         <v>4</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="184" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4690,13 +4705,13 @@
         <v>4</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="185" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4704,13 +4719,13 @@
         <v>4</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="186" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4718,13 +4733,13 @@
         <v>4</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="187" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4732,13 +4747,13 @@
         <v>4</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="188" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4746,13 +4761,13 @@
         <v>4</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="189" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4760,13 +4775,13 @@
         <v>4</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="190" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4774,13 +4789,13 @@
         <v>4</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="191" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4788,13 +4803,13 @@
         <v>4</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="192" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4802,13 +4817,13 @@
         <v>4</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="193" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4816,13 +4831,13 @@
         <v>4</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="194" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4830,13 +4845,13 @@
         <v>4</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="195" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4844,13 +4859,13 @@
         <v>4</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="196" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4858,13 +4873,13 @@
         <v>4</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="197" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4872,13 +4887,13 @@
         <v>4</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="198" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4886,13 +4901,13 @@
         <v>4</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4900,13 +4915,13 @@
         <v>4</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="200" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4914,13 +4929,13 @@
         <v>4</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="201" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4928,13 +4943,13 @@
         <v>4</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="202" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4942,13 +4957,13 @@
         <v>4</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="203" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4956,13 +4971,13 @@
         <v>4</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="204" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4970,13 +4985,13 @@
         <v>4</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="205" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4984,13 +4999,13 @@
         <v>4</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="206" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -4998,13 +5013,13 @@
         <v>4</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="207" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5012,13 +5027,13 @@
         <v>4</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="208" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5026,13 +5041,13 @@
         <v>4</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="209" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5040,13 +5055,13 @@
         <v>4</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="210" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5054,13 +5069,13 @@
         <v>4</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="211" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5068,13 +5083,13 @@
         <v>4</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="212" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5082,13 +5097,13 @@
         <v>4</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="213" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5096,13 +5111,13 @@
         <v>4</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="214" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5110,13 +5125,13 @@
         <v>4</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="215" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5127,10 +5142,10 @@
         <v>433</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5141,10 +5156,10 @@
         <v>433</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="217" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5155,10 +5170,10 @@
         <v>433</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="218" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5169,10 +5184,10 @@
         <v>433</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="219" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5183,10 +5198,10 @@
         <v>433</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="220" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5197,10 +5212,10 @@
         <v>433</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="221" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5211,10 +5226,10 @@
         <v>433</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="222" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5225,10 +5240,10 @@
         <v>433</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="223" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5236,13 +5251,13 @@
         <v>4</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5253,10 +5268,10 @@
         <v>452</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="225" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5267,10 +5282,10 @@
         <v>452</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="226" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5281,10 +5296,10 @@
         <v>452</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="227" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5295,10 +5310,10 @@
         <v>452</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="228" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5309,10 +5324,10 @@
         <v>452</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="229" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5323,10 +5338,10 @@
         <v>452</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="230" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5337,10 +5352,10 @@
         <v>452</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="231" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -5351,27 +5366,13 @@
         <v>452</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="232" spans="3:6" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C232" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F232" s="5" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="233" spans="3:6" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" spans="3:6" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B5:C5"/>
@@ -5392,346 +5393,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D2" s="16">
+        <v>30861.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D3" s="17">
+        <v>87608.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D4" s="16">
+        <v>309613.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" s="17">
+        <v>214081.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D6" s="16">
+        <v>47076.800000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="17">
+        <v>28885.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" s="16">
+        <v>188411.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" s="17">
+        <v>120517.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" s="16">
+        <v>114987.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1934032.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D12" s="16">
+        <v>634454.06000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="17">
+        <v>12801.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D14" s="16">
+        <v>50041.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D15" s="17">
+        <v>132225.73000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="16">
+        <v>42710.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1604021.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D18" s="16">
+        <v>40219.699999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D19" s="17">
+        <v>48927.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D20" s="16">
+        <v>58949.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D21" s="17">
+        <v>47916.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D2" s="9">
-        <v>32867.589999999997</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D3" s="10">
-        <v>88617.14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D4" s="9">
-        <v>288262.31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="D5" s="10">
-        <v>230106.32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D6" s="9">
-        <v>43572.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D7" s="10">
-        <v>32581.87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D8" s="9">
-        <v>240970.74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D9" s="10">
-        <v>116284.87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D10" s="9">
-        <v>146767.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1849299.44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" s="9">
-        <v>659769.89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="D13" s="10">
-        <v>13358.26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="D14" s="9">
-        <v>52329.279999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D15" s="10">
-        <v>128480.48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D16" s="9">
-        <v>42251.74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1580563.51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D18" s="9">
-        <v>42533.56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D19" s="10">
-        <v>56999.28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D20" s="10">
-        <v>47652.57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D21" s="9">
-        <v>62482.19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D22" s="9">
-        <v>205934.49</v>
+      <c r="D22" s="16">
+        <v>189664.68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>515</v>
+      <c r="A23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D23" s="10">
-        <v>100939.6</v>
+        <v>516</v>
+      </c>
+      <c r="D23" s="17">
+        <v>108451.44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D23">
-    <sortState ref="A2:D23">
-      <sortCondition ref="C2"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5740,9 +5738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5757,30 +5753,30 @@
   <sheetData>
     <row r="1" spans="2:19" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:19" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="G2" s="17"/>
+      <c r="F2" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:19" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="2:19" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="2:19" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="2:19" s="1" customFormat="1" ht="288.89999999999998" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:19" s="1" customFormat="1" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -5789,13 +5785,13 @@
       </c>
     </row>
     <row r="8" spans="2:19" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:19" s="1" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="2">
@@ -5896,13 +5892,13 @@
     </row>
     <row r="11" spans="2:19" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>492</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="F11" s="7">
         <v>9626014</v>
